--- a/src/test/resources/TestData/Book1.xlsx
+++ b/src/test/resources/TestData/Book1.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75857DF3-6207-4CBB-B27C-9DC30A999146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6740A80D-7CCD-4F42-AA23-B82AD139F469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A00FA1E5-3F7A-4162-AEA2-1AABB95E5FDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{A00FA1E5-3F7A-4162-AEA2-1AABB95E5FDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,34 +34,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
-    <t>name</t>
+    <t>Abhishek</t>
   </si>
   <si>
-    <t>number</t>
+    <t>K L</t>
   </si>
   <si>
-    <t>sjdchjsh</t>
+    <t>abhi@123</t>
   </si>
   <si>
-    <t>hfcfjhdj</t>
-  </si>
-  <si>
-    <t>jhdsjh</t>
-  </si>
-  <si>
-    <t>ywebncn</t>
+    <t>ghdghg@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -83,13 +86,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -402,39 +408,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247270AE-67F2-425B-9E26-F106EBD17546}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{3D8EB369-C333-48D0-9268-50565CA7D0A4}"/>
+    <hyperlink ref="D1" r:id="rId2" xr:uid="{1BF68EA1-1C20-4302-B778-CC3FC15A962B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C1EA88-D525-4FCA-921A-80005489B904}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{924CBECF-7BCE-4813-848C-09DC1827B9CC}"/>
+    <hyperlink ref="D1" r:id="rId2" xr:uid="{C940FD00-6349-457B-A5D9-2DB4AD3F9DF0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>